--- a/medicine/Mort/Tombeau_de_Paul_Bert/Tombeau_de_Paul_Bert.xlsx
+++ b/medicine/Mort/Tombeau_de_Paul_Bert/Tombeau_de_Paul_Bert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tombeau de Paul Bert est le lieu d'inhumation de Paul Bert située au cimetière Dunant (ou cimetière Saint-Amâtre) à Auxerre en France. La tombe est particulièrement connue pour le gisant en bronze de Auguste Bartholdi qui orne la tombe. Le fondeur du gisant était Thiébaut[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tombeau de Paul Bert est le lieu d'inhumation de Paul Bert située au cimetière Dunant (ou cimetière Saint-Amâtre) à Auxerre en France. La tombe est particulièrement connue pour le gisant en bronze de Auguste Bartholdi qui orne la tombe. Le fondeur du gisant était Thiébaut.
 Paul bert est enterré dans ce tombeau en 1888, à la suite du rapatriement de sa dépouille depuis Hanoï, quelques mois après son décès.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gisant ornant la tombe est réalisée en bronze et représente Paul Bert lui-même : il est représenté mourant et drapé dans les drapeaux français et anamite (de l'Indochine française)[1], la tête posée sur un oreiller lui-même juché sur une pile de livres[2].
-Sur la tombe en  granit elle-même est gravé : « Sciences et Patrie »[2]. Ainsi que les états de service de Paul Bert[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gisant ornant la tombe est réalisée en bronze et représente Paul Bert lui-même : il est représenté mourant et drapé dans les drapeaux français et anamite (de l'Indochine française), la tête posée sur un oreiller lui-même juché sur une pile de livres.
+Sur la tombe en  granit elle-même est gravé : « Sciences et Patrie ». Ainsi que les états de service de Paul Bert :
 « PAUL BERT
 Auxerre 1833
 Hanoi 1886
@@ -526,8 +540,8 @@
 Et des Cultes
 Premier Résident Général
 En Annam et an Tonkin »
-Un arrière-plan représente le rayonnement du soleil de la science et de la République[2].
-La collaboratrice et épouse de Paul Bert, Josephine Clayton (1846-1916), et la sœur de celle-ci, Anna Clayton (1856-1928), sont également enterrées dans ce tombeau[4]. L'inscription suivante est alors ajoutée[3] :
+Un arrière-plan représente le rayonnement du soleil de la science et de la République.
+La collaboratrice et épouse de Paul Bert, Josephine Clayton (1846-1916), et la sœur de celle-ci, Anna Clayton (1856-1928), sont également enterrées dans ce tombeau. L'inscription suivante est alors ajoutée :
 « MADAME PAUL BERT
 Née JOSEPHINE CLAYTON
 Collaboratrice de son mari
